--- a/results/gurobi_cplex_comparison/seed_10_k_35.xlsx
+++ b/results/gurobi_cplex_comparison/seed_10_k_35.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.014</v>
+        <v>0.955</v>
       </c>
       <c r="F2">
-        <v>0.031</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.013</v>
+        <v>1.361</v>
       </c>
       <c r="F3">
-        <v>0.033</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.037</v>
+        <v>1.873</v>
       </c>
       <c r="F4">
-        <v>0.059</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02</v>
+        <v>2.43</v>
       </c>
       <c r="F5">
-        <v>0.053</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.057</v>
+        <v>3.122</v>
       </c>
       <c r="F6">
-        <v>0.07000000000000001</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.062</v>
+        <v>3.845</v>
       </c>
       <c r="F7">
-        <v>0.082</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.094</v>
+        <v>4.694</v>
       </c>
       <c r="F8">
-        <v>9.755000000000001</v>
+        <v>2.371</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.033</v>
+        <v>5.48</v>
       </c>
       <c r="F9">
-        <v>0.07199999999999999</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.122</v>
+        <v>6.527</v>
       </c>
       <c r="F10">
-        <v>86.601</v>
+        <v>105.192</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.043</v>
+        <v>7.494</v>
       </c>
       <c r="F11">
-        <v>96.979</v>
+        <v>126.028</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07099999999999999</v>
+        <v>8.67</v>
       </c>
       <c r="F12">
-        <v>144.717</v>
+        <v>69.011</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.065</v>
+        <v>9.849</v>
       </c>
       <c r="F13">
-        <v>93.122</v>
+        <v>75.108</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.167</v>
+        <v>11.197</v>
       </c>
       <c r="F14">
-        <v>102.883</v>
+        <v>82.569</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.081</v>
+        <v>12.454</v>
       </c>
       <c r="F15">
-        <v>114.888</v>
+        <v>139.82</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07000000000000001</v>
+        <v>13.886</v>
       </c>
       <c r="F16">
-        <v>77.79900000000001</v>
+        <v>123.154</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.283</v>
+        <v>15.659</v>
       </c>
       <c r="F17">
-        <v>134.091</v>
+        <v>145.827</v>
       </c>
     </row>
   </sheetData>
